--- a/docs/test/Testconcept_OrganisationApp_Tasks_Jan.xlsx
+++ b/docs/test/Testconcept_OrganisationApp_Tasks_Jan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27304"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Coding\02_Projects\02_SE_Project_05\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B6803F-B179-4FC5-A0E2-49813287803B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="13_ncr:1_{34B6803F-B179-4FC5-A0E2-49813287803B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24C5A890-6F08-4A04-A457-5929F75839F7}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2808" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2808" windowWidth="23256" windowHeight="12456" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="9" r:id="rId1"/>
@@ -19,112 +19,387 @@
     <sheet name="Integration-Tests Frontend" sheetId="8" r:id="rId4"/>
     <sheet name="Unit-Tests Backend" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="188">
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Jan Weller</t>
+  </si>
+  <si>
+    <t>Getestete Elemente</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>Komponente-Datei</t>
+  </si>
+  <si>
+    <t>Klasse</t>
+  </si>
+  <si>
+    <t>Methode</t>
+  </si>
+  <si>
+    <t>Test-Datei</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>unit-test</t>
+  </si>
+  <si>
+    <t>lib/controller/task_controller.dart</t>
+  </si>
+  <si>
+    <t>TaskCountroller</t>
+  </si>
+  <si>
+    <t>Alles</t>
+  </si>
+  <si>
+    <t>test/controller/task_controller_test[.mocks].dart</t>
+  </si>
+  <si>
+    <t>lib/model/task.dart</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>test/model/tasks_test.dart</t>
+  </si>
+  <si>
+    <t>widget-test</t>
+  </si>
+  <si>
+    <t>lib/pages/todos/create_todo_dialog.dart</t>
+  </si>
   <si>
     <t>CreateItemPage</t>
   </si>
   <si>
+    <t>test/pages/todos/create_todo_dialog_test[.mocks].dart</t>
+  </si>
+  <si>
+    <t>lib/pages/my_courses/todos_page.dart</t>
+  </si>
+  <si>
+    <t>TodosPage</t>
+  </si>
+  <si>
+    <t>test/pages/my_courses/todos_page_test[.mocks].dart</t>
+  </si>
+  <si>
+    <t>lib/shared/date_picker.dart</t>
+  </si>
+  <si>
+    <t>DatePickerTask</t>
+  </si>
+  <si>
+    <t>test/shared/date_picker.dart</t>
+  </si>
+  <si>
+    <t>integration-test</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>OrganisationApp -&gt; Todospage</t>
+  </si>
+  <si>
+    <t>integration_test/ToDos_integration_test.dart</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>main/java/.../controller/TaskController.java</t>
+  </si>
+  <si>
+    <t>TaskController</t>
+  </si>
+  <si>
+    <t>test/java/…/controller/TaskControllerTest.java</t>
+  </si>
+  <si>
+    <t>main/java/.../controller/Task.java</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>test/java/…/controller/TaskTest.java</t>
+  </si>
+  <si>
+    <t>Datei</t>
+  </si>
+  <si>
+    <t>Funktion/Methode</t>
+  </si>
+  <si>
+    <t>getAllTasksForUser</t>
+  </si>
+  <si>
+    <t>Äquivalenzklassen</t>
+  </si>
+  <si>
+    <t>Möglichkeiten -&gt;</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verfügbar </t>
+  </si>
+  <si>
+    <t>nicht verfügbar</t>
+  </si>
+  <si>
+    <t>Bedingung</t>
+  </si>
+  <si>
+    <t>Es liegt ein task vor</t>
+  </si>
+  <si>
+    <t>Es liegt kein task vor</t>
+  </si>
+  <si>
+    <t>Eingabe</t>
+  </si>
+  <si>
+    <t>Gültiger Benutzer</t>
+  </si>
+  <si>
+    <t>Ungültiger Benutzer</t>
+  </si>
+  <si>
+    <t>Ausgabe</t>
+  </si>
+  <si>
+    <t>Liste mit Tasks</t>
+  </si>
+  <si>
+    <t>Leere Liste</t>
+  </si>
+  <si>
+    <t>Leere Liste durch TimeoutException</t>
+  </si>
+  <si>
+    <t>JSON Decode Exception</t>
+  </si>
+  <si>
+    <t>LeereListe durch Unauthorized Response</t>
+  </si>
+  <si>
+    <t>Leere Liste durch Task not found</t>
+  </si>
+  <si>
+    <t>Leere Liste durch einen anderen Fehler</t>
+  </si>
+  <si>
+    <t>Testfälle</t>
+  </si>
+  <si>
+    <t>Test-Typ</t>
+  </si>
+  <si>
+    <t>Eingaben</t>
+  </si>
+  <si>
+    <t>Erwartete Ausgaben</t>
+  </si>
+  <si>
+    <t>Äquivalenzklasse</t>
+  </si>
+  <si>
+    <t>Es liegen keine Task vor</t>
+  </si>
+  <si>
+    <t>Es liegen Tasks vor</t>
+  </si>
+  <si>
+    <t>Liste  von Tasksn</t>
+  </si>
+  <si>
+    <t>LeereListe durch Unautorized Response</t>
+  </si>
+  <si>
+    <t>Grenzwertanalyse</t>
+  </si>
+  <si>
+    <t>Es liegt genau ein Task in der Liste vor</t>
+  </si>
+  <si>
+    <t>Liste mit genau diesem Task</t>
+  </si>
+  <si>
+    <t>creatTask</t>
+  </si>
+  <si>
+    <t>Task erstellen</t>
+  </si>
+  <si>
+    <t>Task nicht erstellen</t>
+  </si>
+  <si>
+    <t>Gültiger Task</t>
+  </si>
+  <si>
+    <t>task Erstellt: Code 200</t>
+  </si>
+  <si>
+    <t>Task wird nicht erstellt</t>
+  </si>
+  <si>
+    <t>TimeoutException: Code 408</t>
+  </si>
+  <si>
+    <t>task nicht erstellen</t>
+  </si>
+  <si>
+    <t>TimeoutException: Task nicht erfolgreich aktualisiert</t>
+  </si>
+  <si>
+    <t>Server nicht verfügbar</t>
+  </si>
+  <si>
+    <t>updatetask</t>
+  </si>
+  <si>
+    <t>Task aktualisiert</t>
+  </si>
+  <si>
+    <t>Task nicht aktualisiert</t>
+  </si>
+  <si>
+    <t>Gültiger task</t>
+  </si>
+  <si>
+    <t>Ungültiger Task</t>
+  </si>
+  <si>
+    <t>Task erfolgreich aktualisiert: Code 200</t>
+  </si>
+  <si>
+    <t>Task nicht erfolgreich aktualisiert</t>
+  </si>
+  <si>
+    <t>deletetask</t>
+  </si>
+  <si>
+    <t>Task löschen</t>
+  </si>
+  <si>
+    <t>Task nicht löschen</t>
+  </si>
+  <si>
+    <t>Task erfolgreich gelöscht: Code 200</t>
+  </si>
+  <si>
+    <t>Task nicht erfolgreich gelöscht</t>
+  </si>
+  <si>
+    <t>TimeoutException: Task nicht erfolgreich gelöscht</t>
+  </si>
+  <si>
+    <t>Task erfolgreich gelöscht</t>
+  </si>
+  <si>
     <t>Erwartetes Ergebnis</t>
   </si>
   <si>
+    <t>Seite korrekt geladen</t>
+  </si>
+  <si>
     <t>keine</t>
   </si>
   <si>
-    <t>Äquivalenzklassen</t>
-  </si>
-  <si>
-    <t>Bedingung</t>
-  </si>
-  <si>
-    <t>Eingaben</t>
-  </si>
-  <si>
-    <t>Erwartete Ausgaben</t>
+    <t>Zwei Textfelder und ein Button mit Text Create  korrekt geladen, Hint Texte für Namen und Beschreibung vorhanden</t>
+  </si>
+  <si>
+    <t>Beschreibung aber kein Name &amp; Button Click Create</t>
+  </si>
+  <si>
+    <t>Seite wechselt nicht, Validiation Text im Namensfeld vorhanden</t>
+  </si>
+  <si>
+    <t>Name aber keine Beschreibung &amp; Button Click Create</t>
+  </si>
+  <si>
+    <t>Name und Beschreibung und Button Click Create</t>
+  </si>
+  <si>
+    <t>Seite wechselt nicht, Validiation Text im Beschreibungsfeld vorhanden</t>
+  </si>
+  <si>
+    <t>Seite wechselt zu MainPage</t>
   </si>
   <si>
     <t>MainPage</t>
   </si>
   <si>
-    <t>Testfälle</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verfügbar </t>
-  </si>
-  <si>
-    <t>nicht verfügbar</t>
-  </si>
-  <si>
-    <t>Eingabe</t>
-  </si>
-  <si>
-    <t>Ausgabe</t>
+    <t>Seite korrekt geladen, Item Liste leer</t>
+  </si>
+  <si>
+    <t>Keine Card-Widgets vorhanden</t>
+  </si>
+  <si>
+    <t>Seite korrekt geladen, Item Liste nicht leer</t>
   </si>
   <si>
     <t>Zwei Card-Widgets vorhanden</t>
   </si>
   <si>
-    <t>Keine Card-Widgets vorhanden</t>
-  </si>
-  <si>
     <t>Zwei Delete Icons vorhanden</t>
   </si>
   <si>
     <t>Zwei Edit Icons vorhanden</t>
   </si>
   <si>
+    <t>Entsprechende Anzahl an Card Widgets vorhanden</t>
+  </si>
+  <si>
+    <t>Entsprechende Anzahl an Delete Icons vorhanden</t>
+  </si>
+  <si>
+    <t>Entsprechende Anzahl an Edit Icons vorhanden</t>
+  </si>
+  <si>
     <t>Keine Card Widgets vorhanden</t>
   </si>
   <si>
-    <t>Entsprechende Anzahl an Card Widgets vorhanden</t>
-  </si>
-  <si>
-    <t>Entsprechende Anzahl an Delete Icons vorhanden</t>
-  </si>
-  <si>
-    <t>Entsprechende Anzahl an Edit Icons vorhanden</t>
-  </si>
-  <si>
-    <t>Seite korrekt geladen</t>
-  </si>
-  <si>
-    <t>Zwei Textfelder und ein Button mit Text Create  korrekt geladen, Hint Texte für Namen und Beschreibung vorhanden</t>
-  </si>
-  <si>
-    <t>Seite wechselt zu MainPage</t>
-  </si>
-  <si>
-    <t>Seite wechselt nicht, Validiation Text im Namensfeld vorhanden</t>
-  </si>
-  <si>
-    <t>Seite wechselt nicht, Validiation Text im Beschreibungsfeld vorhanden</t>
-  </si>
-  <si>
-    <t>Beschreibung aber kein Name &amp; Button Click Create</t>
-  </si>
-  <si>
-    <t>Name aber keine Beschreibung &amp; Button Click Create</t>
-  </si>
-  <si>
-    <t>Name und Beschreibung und Button Click Create</t>
-  </si>
-  <si>
-    <t>Seite korrekt geladen, Item Liste leer</t>
-  </si>
-  <si>
-    <t>Seite korrekt geladen, Item Liste nicht leer</t>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Vorbedingung</t>
   </si>
   <si>
     <t>Szenario</t>
@@ -133,92 +408,209 @@
     <t>Nachbedingung</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Vorbedingung</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>frontend</t>
-  </si>
-  <si>
-    <t>Ort</t>
-  </si>
-  <si>
-    <t>Typ</t>
-  </si>
-  <si>
-    <t>Datei</t>
-  </si>
-  <si>
-    <t>Klasse</t>
-  </si>
-  <si>
-    <t>Methode</t>
-  </si>
-  <si>
-    <t>unit-test</t>
-  </si>
-  <si>
-    <t>Getestete Elemente</t>
-  </si>
-  <si>
-    <t>Funktion/Methode</t>
-  </si>
-  <si>
-    <t>Äquivalenzklasse</t>
-  </si>
-  <si>
-    <t>Möglichkeiten -&gt;</t>
-  </si>
-  <si>
-    <t>Test-Typ</t>
+    <t>Create und Delete Task</t>
   </si>
   <si>
     <t>Benutzer nicht angemeldet</t>
   </si>
   <si>
+    <t>Start auf LoginPage</t>
+  </si>
+  <si>
     <t>User login angezeigt</t>
   </si>
   <si>
-    <t>Benutzer befindet sich in "MyCourses" page, 0 Kurse angezeigt</t>
-  </si>
-  <si>
-    <t>Benutzer anmelden und abmelden</t>
-  </si>
-  <si>
-    <t>Benutzer anmelden mit "test"</t>
-  </si>
-  <si>
-    <t>Menu drawer öffnen und "Logout" klicken</t>
-  </si>
-  <si>
-    <t>Benutzer befindet sich auf "Login"-Page</t>
-  </si>
-  <si>
-    <t>integration-test</t>
-  </si>
-  <si>
-    <t>Test-Datei</t>
-  </si>
-  <si>
-    <t>Komponente-Datei</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Jan Weller</t>
+    <t>Benutzer anmelden mit "mathemann"</t>
+  </si>
+  <si>
+    <t>Benutzer ist auf "MyCourese" page</t>
+  </si>
+  <si>
+    <t>Benutzer ist auf "MyCourses" page, 0 Kurse angezeigt</t>
+  </si>
+  <si>
+    <t>navigation auf "ToDos" page</t>
+  </si>
+  <si>
+    <t>Benutzer ist auf "ToDos" page</t>
+  </si>
+  <si>
+    <t>Benutzer ist auf "ToDos" page, 0 Task angezeigt</t>
+  </si>
+  <si>
+    <t>Click auf FloatingActionButton "New"</t>
+  </si>
+  <si>
+    <t>Benutzer ist auf "CreateItem" page</t>
+  </si>
+  <si>
+    <t>namen "Newtask" in TextFormField "name" eingeben</t>
+  </si>
+  <si>
+    <t>"Newtask" befindet sich im TextFormField</t>
+  </si>
+  <si>
+    <t>Benutzer ist auf "CreateItem" page, "Newtask" wird angezeigt</t>
+  </si>
+  <si>
+    <t>Click auf "DatetimePicker" "deadline"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benutzer ist auf "DatetimePicker" page mit derzeitigem datum ausgewählt </t>
+  </si>
+  <si>
+    <t>Benutzer ist auf "DatetimePicker" page</t>
+  </si>
+  <si>
+    <t>Click auf "1" im DatetimePicker</t>
+  </si>
+  <si>
+    <t>datum mit dem ersten tag des monats ist ausgewählt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benutzer ist auf "DatetimePicker" page und der erste des monats ist ausgewählt </t>
+  </si>
+  <si>
+    <t>Click auf "Ok"</t>
+  </si>
+  <si>
+    <t>Click auf "DropdownButtonFormField" "priority"</t>
+  </si>
+  <si>
+    <t>Benutzer sieht das "DropdownButtonFormField" mit 1, 2, 3</t>
+  </si>
+  <si>
+    <t>Benutzer ist auf "CreateItem" page mit "DropdownButtonFormField" ausgeklappt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click auf "2" Im "DropdownButtonFormField" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"DropdownButtonFormField" wird geschlossen und "2" ist ausgewählt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click auf ElevatedButton "Save" </t>
+  </si>
+  <si>
+    <t>Benutzer ist auf "ToDos" page mit einem Task</t>
+  </si>
+  <si>
+    <t>Task hat den namen "Newtask" und das derzeitige datum sowie die priority 2</t>
+  </si>
+  <si>
+    <t>Click auf IconButton "delete"</t>
+  </si>
+  <si>
+    <t>Benutzer ist auf "ToDos" page mit 0 Tasks</t>
+  </si>
+  <si>
+    <t>createTask</t>
+  </si>
+  <si>
+    <t>Task erfolgreich gespeichert</t>
+  </si>
+  <si>
+    <t>Task nicht erfolgreich gespeichert</t>
+  </si>
+  <si>
+    <t>Task wird gespeichert</t>
+  </si>
+  <si>
+    <t>ResponseStatusException Conflict</t>
+  </si>
+  <si>
+    <t>createTaskForUser</t>
+  </si>
+  <si>
+    <t>Task soll gepeichert werden</t>
+  </si>
+  <si>
+    <t>Gültiger Task &amp; Gültiger User</t>
+  </si>
+  <si>
+    <t>Ungültiger Task &amp; Gültiger User</t>
+  </si>
+  <si>
+    <t>Ungültiger User &amp; Gültiger Task</t>
+  </si>
+  <si>
+    <t>Ungültiger User &amp; Ungültiger Task</t>
+  </si>
+  <si>
+    <t>ResponseStatusException Unauthorized</t>
+  </si>
+  <si>
+    <t>updateTask</t>
+  </si>
+  <si>
+    <t>Task erfolgreich aktualisiert</t>
+  </si>
+  <si>
+    <t>Gültige Task-Id und Task</t>
+  </si>
+  <si>
+    <t>Ungültige Task-Id</t>
+  </si>
+  <si>
+    <t>Aktualisierter Task</t>
+  </si>
+  <si>
+    <t>ResponseStatusException NotFound</t>
+  </si>
+  <si>
+    <t>deleteTask</t>
+  </si>
+  <si>
+    <t>Kein Task zu löschen</t>
+  </si>
+  <si>
+    <t>Gültige Task-Id</t>
+  </si>
+  <si>
+    <t>Keine Ausgabe</t>
+  </si>
+  <si>
+    <t>deleteAllTasks</t>
+  </si>
+  <si>
+    <t>Tasks erfolgreich gelöscht</t>
+  </si>
+  <si>
+    <t>Keine Tasks zu löschen</t>
+  </si>
+  <si>
+    <t>getAllTasks</t>
+  </si>
+  <si>
+    <t>Tasks erfolgreich gefunden</t>
+  </si>
+  <si>
+    <t>Keine Tasks zu finden</t>
+  </si>
+  <si>
+    <t>Tasks werden zurückgegeben</t>
+  </si>
+  <si>
+    <t>Eine lehre liste wird zurückgegeben</t>
+  </si>
+  <si>
+    <t>Keine AusgabeTasks werden ausgegeben</t>
+  </si>
+  <si>
+    <t>Es liegen keine Tasks vor</t>
+  </si>
+  <si>
+    <t>Liste mit Tasksn</t>
+  </si>
+  <si>
+    <t>Liste  von Tasks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +640,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +679,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -382,13 +800,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -439,28 +940,200 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20 % - Akzent1" xfId="2" builtinId="30"/>
+    <cellStyle name="Akzent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
+  <dxfs count="104">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -508,6 +1181,22 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -544,7 +1233,9 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -560,9 +1251,9 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -576,13 +1267,1391 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -727,23 +2796,23 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -781,29 +2850,169 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:F6" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A4:F6" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}" name="Table1" displayName="Table1" ref="A4:F12" totalsRowShown="0" headerRowDxfId="103" headerRowBorderDxfId="101" tableBorderDxfId="102" totalsRowBorderDxfId="100">
+  <autoFilter ref="A4:F12" xr:uid="{36A449AC-DC09-4BA4-B167-13CDD3BECA2A}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Komponente-Datei" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Klasse" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{F84C3C09-490B-4651-81C6-6C8B08C187FF}" name="Methode" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{42935E76-B357-4DF0-A865-8B148F93BB65}" name="Test-Datei" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{507A3FF2-9B07-462C-A22C-8B11345F819E}" name="Ort" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{07657F8A-5478-4DE7-8068-150C2CFA1187}" name="Typ" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{14093B07-E295-464C-BF31-4348B1CFF9BC}" name="Komponente-Datei" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{3D56AFAA-FFDA-43A3-BB43-5016E1E890FA}" name="Klasse" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{F84C3C09-490B-4651-81C6-6C8B08C187FF}" name="Methode" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{42935E76-B357-4DF0-A865-8B148F93BB65}" name="Test-Datei" dataDxfId="94"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{CE9895AE-4151-49EC-98CE-9695B7E310F6}" name="Table9111211" displayName="Table9111211" ref="A70:E72" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22">
+  <autoFilter ref="A70:E72" xr:uid="{CE9895AE-4151-49EC-98CE-9695B7E310F6}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{76BABDED-1106-425B-B64D-0E9B9E4DC0D4}" name="Testfälle" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{C4F4E068-AA6B-4DB1-9016-026A66E2CA15}" name="Test-Typ" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{79351839-DF71-4191-9801-D1B405B0619E}" name="Bedingung" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{91F6EF24-0E6E-4F74-8996-3E4D054A9888}" name="Eingaben" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{68E3C419-21DB-429A-888E-AE8DCDE3BA17}" name="Erwartete Ausgaben" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C318AA42-C105-48A2-B064-E6BFEF97088F}" name="Table911121112" displayName="Table911121112" ref="A84:E86" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14">
+  <autoFilter ref="A84:E86" xr:uid="{C318AA42-C105-48A2-B064-E6BFEF97088F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E528AE61-53A2-40F7-946D-A97B458C34C0}" name="Testfälle" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{6F267203-9BDD-4875-8B6E-3BED0C11FD9C}" name="Test-Typ" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{12291DEC-6F98-419E-A387-5732A47A15C6}" name="Bedingung" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{7983E71F-FE5D-4809-A13E-A84DF4143CB2}" name="Eingaben" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{0D33F564-2A87-4953-ADF1-E8B3B7E57335}" name="Erwartete Ausgaben" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{736E6EB5-F470-44B5-B170-026C4724ABC0}" name="Table6" displayName="Table6" ref="A98:E102" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A98:E102" xr:uid="{736E6EB5-F470-44B5-B170-026C4724ABC0}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A6300D2D-1E80-4006-8747-A654E1593530}" name="Testfälle" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{411FE2D1-93E2-4202-B7F5-40692378A85E}" name="Test-Typ" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{47BC7A3F-CAC5-4BE7-A5F5-4A2C1F89119F}" name="Bedingung" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{C02FA790-76BC-4CAF-8253-881A3D6B128E}" name="Eingaben" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{C52BC83C-C5D7-43CF-A439-AAF92ADD5B26}" name="Erwartete Ausgaben" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E13" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A12:E13" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}" name="Table3" displayName="Table3" ref="A12:E20" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="91" tableBorderDxfId="92" totalsRowBorderDxfId="90">
+  <autoFilter ref="A12:E20" xr:uid="{5BB20C13-15B3-4E38-96C9-1521AA4A3DCC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D5E0E3C5-5383-4429-B50C-B3998B93A4B3}" name="Testfälle" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{B697326C-9165-4043-8303-DDBF950D32F7}" name="Test-Typ" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{7FEAB877-C24A-49C7-A31C-A2708EAA40AF}" name="Bedingung" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{35F2A014-35FC-4F45-9FA0-F3FDF581AE48}" name="Eingaben" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{0931E050-95FA-4C0E-B68A-8C07BFF87033}" name="Erwartete Ausgaben" dataDxfId="85"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4F55819F-350F-4EFD-99E9-9CD1BFED8E66}" name="Table25" displayName="Table25" ref="A33:E36" totalsRowShown="0" headerRowDxfId="84" headerRowBorderDxfId="82" tableBorderDxfId="83" totalsRowBorderDxfId="81">
+  <autoFilter ref="A33:E36" xr:uid="{4F55819F-350F-4EFD-99E9-9CD1BFED8E66}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A6727542-9B5B-4226-BBA7-8BF936CF63AA}" name="Testfälle" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{03C407A4-19C2-4FFD-8531-DA4BB5B97695}" name="Test-Typ" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{80835026-37A1-400C-B3D1-2C58F94DABAC}" name="Bedingung" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{AAFBF7F1-1AAD-412A-B3E0-19076B046DC0}" name="Eingaben" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{60590654-E050-4875-B5EF-4D1D2B0F00BA}" name="Erwartete Ausgaben" dataDxfId="76"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{392F9DD7-536F-442C-B6BB-A6BC761B65A5}" name="Table257" displayName="Table257" ref="A49:E52" totalsRowShown="0" headerRowDxfId="75" headerRowBorderDxfId="73" tableBorderDxfId="74" totalsRowBorderDxfId="72">
+  <autoFilter ref="A49:E52" xr:uid="{392F9DD7-536F-442C-B6BB-A6BC761B65A5}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0B6D1288-34F9-4A42-BEE1-C1A12612EC89}" name="Testfälle" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{86B3B1DF-F58F-4905-B9B5-4F36F8EBE854}" name="Test-Typ" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{B7FD3230-75D9-40E2-BE7B-9DB5BACDD45B}" name="Bedingung" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{3D3F5740-5597-49DE-A7BF-644FE67EB99A}" name="Eingaben" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{DF8FBA02-B3F7-401C-8BC9-2CD6376BEDF2}" name="Erwartete Ausgaben" dataDxfId="67"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CB74CF08-D60B-4CAF-99BE-0A3BF866DECD}" name="Table256" displayName="Table256" ref="A65:E68" totalsRowShown="0" headerRowDxfId="66" headerRowBorderDxfId="64" tableBorderDxfId="65" totalsRowBorderDxfId="63">
+  <autoFilter ref="A65:E68" xr:uid="{CB74CF08-D60B-4CAF-99BE-0A3BF866DECD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8C010315-0981-4AAA-92C2-44934B95BAF7}" name="Testfälle" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{4B61D5EE-E583-413D-A26F-1A482EC02608}" name="Test-Typ" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{48A06877-EEC3-4966-8615-EA878C621690}" name="Bedingung" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{AC65BA57-AD85-4D34-9C04-97566A4B827D}" name="Eingaben" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{28BCFD16-D16A-4A2F-8FB0-BE0A6EC89363}" name="Erwartete Ausgaben" dataDxfId="58"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{882389D9-15A9-4F9C-B2F4-7FAD7C94AB10}" name="Table7" displayName="Table7" ref="A11:E14" totalsRowShown="0" headerRowDxfId="57" headerRowBorderDxfId="55" tableBorderDxfId="56" totalsRowBorderDxfId="54">
+  <autoFilter ref="A11:E14" xr:uid="{882389D9-15A9-4F9C-B2F4-7FAD7C94AB10}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{0A0A4E82-C17B-4D80-8A33-234A928D11D0}" name="Testfälle" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{55DEF97B-A6CF-4636-B9B3-DDA2BAC8FA09}" name="Test-Typ" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{6643B26D-E261-449E-9B2C-4124CAF7E39A}" name="Bedingung" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{16363C08-A781-40B3-9765-B09B80C13417}" name="Eingaben" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{F39B52DE-AE78-4141-A58A-B31FF151EEF9}" name="Erwartete Ausgaben" dataDxfId="49"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{50800F6B-C317-4184-AA1A-B28D27B7AC4F}" name="Table75" displayName="Table75" ref="A26:E30" totalsRowShown="0" headerRowDxfId="48" headerRowBorderDxfId="46" tableBorderDxfId="47" totalsRowBorderDxfId="45">
+  <autoFilter ref="A26:E30" xr:uid="{50800F6B-C317-4184-AA1A-B28D27B7AC4F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7AFEF58D-3B95-4C77-B2A8-A0CAEB79E59F}" name="Testfälle" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{C44D8D5B-EC22-45F0-B2B8-E28D688257E0}" name="Test-Typ" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{46E975C6-FBA5-45D4-B854-567710572D5A}" name="Bedingung" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{36C108EE-FF8C-4CD9-920A-CEABA0F0F116}" name="Eingaben" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{FCB98DD0-C20A-4E5A-986B-7531EA5B7FB8}" name="Erwartete Ausgaben" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{165BB9B3-EF90-4599-B4C4-448F650068EE}" name="Table911" displayName="Table911" ref="A42:E44" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="37" tableBorderDxfId="38">
+  <autoFilter ref="A42:E44" xr:uid="{165BB9B3-EF90-4599-B4C4-448F650068EE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C54B8990-DE04-4D1A-A4D7-17E6D3637D0D}" name="Testfälle" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{4684474C-9E96-4A99-849D-D666FF46CE46}" name="Test-Typ" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{35F97A5C-8513-4118-816B-770EE1AF980B}" name="Bedingung" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{6E130635-E32F-4ED4-8BCF-E588AA07B34E}" name="Eingaben" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{1CFE2F01-520A-4EA6-A6DE-9B606DFA7630}" name="Erwartete Ausgaben" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{5D11BA67-EE89-4041-B291-1A2B481856DC}" name="Table91112" displayName="Table91112" ref="A56:E58" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="29" tableBorderDxfId="30">
+  <autoFilter ref="A56:E58" xr:uid="{5D11BA67-EE89-4041-B291-1A2B481856DC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9ACEC4EB-EA41-47F5-8560-2A5662ED0466}" name="Testfälle" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{38703AB3-BC92-4C4F-9101-FF5545083C95}" name="Test-Typ" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{1ADC7396-C5F5-4DCB-A706-44A5CED7D90E}" name="Bedingung" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{06BC3930-0F1A-4B4A-AB87-AE50B8A4372D}" name="Eingaben" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{8CFA4982-EE8A-4D20-A1EB-CA99EE69D1EF}" name="Erwartete Ausgaben" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1072,93 +3281,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA8CA56-581F-4991-9983-10E0961810A1}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.77734375" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15">
+      <c r="A5" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15">
+      <c r="A7" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15">
+      <c r="A8" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15">
+      <c r="A9" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15">
+      <c r="A11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15">
+      <c r="A12" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="D12" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="43" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1171,24 +3500,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5777E552-38DB-4FF6-8E00-150ECCF800EA}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="48.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="23"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -1198,30 +3527,36 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="B4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="21" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -1230,15 +3565,15 @@
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1246,77 +3581,711 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="24">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15">
+      <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
+      <c r="A15" s="29">
+        <v>3</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15">
+      <c r="A16" s="12">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15">
+      <c r="A17" s="29">
+        <v>5</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15">
+      <c r="A18" s="12">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15">
+      <c r="A19" s="29">
+        <v>7</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15">
+      <c r="A20" s="12">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8" ht="15">
+      <c r="A23" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15">
+      <c r="A24" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15">
+      <c r="A25" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15">
+      <c r="A27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="15">
+      <c r="A31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15">
+      <c r="A34" s="24">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15">
+      <c r="A35" s="24">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15">
+      <c r="A36" s="24">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15">
+      <c r="A37" s="14"/>
+    </row>
+    <row r="38" spans="1:8" ht="15">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+    </row>
+    <row r="39" spans="1:8" ht="15">
+      <c r="A39" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15">
+      <c r="A40" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15">
+      <c r="A41" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15">
+      <c r="A43" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:8" ht="15">
+      <c r="A44" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" ht="15">
+      <c r="A45" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" ht="15">
+      <c r="A46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="15">
+      <c r="A47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15"/>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" s="24">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="24">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="24">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15">
+      <c r="A57" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15"/>
+    <row r="59" spans="1:5" ht="15">
+      <c r="A59" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15"/>
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="24">
+        <v>1</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="24">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="24">
+        <v>3</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1325,23 +4294,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" style="14" customWidth="1"/>
-    <col min="3" max="4" width="35.109375" customWidth="1"/>
-    <col min="5" max="5" width="36.88671875" customWidth="1"/>
-    <col min="6" max="6" width="1.5546875" customWidth="1"/>
-    <col min="7" max="11" width="26.44140625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" customWidth="1"/>
+    <col min="7" max="11" width="26.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="5"/>
@@ -1354,127 +4323,127 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="7"/>
       <c r="B2" s="12" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="8" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="43.15">
       <c r="A3" s="7"/>
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="8" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.9">
       <c r="A4" s="7"/>
       <c r="B4" s="12">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="57.6">
       <c r="A5" s="7"/>
       <c r="B5" s="12">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="28.9">
       <c r="A6" s="7"/>
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
@@ -1483,9 +4452,9 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="5"/>
@@ -1498,113 +4467,113 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="7"/>
       <c r="B8" s="12">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="8" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="28.9">
       <c r="A9" s="2"/>
       <c r="B9" s="12">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="8" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="28.9">
       <c r="A10" s="2"/>
       <c r="B10" s="12">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="8" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="28.9">
       <c r="A11" s="2"/>
       <c r="B11" s="12">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="8" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2"/>
       <c r="B12" s="12">
         <v>12</v>
@@ -1618,7 +4587,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="7"/>
       <c r="B13" s="12"/>
       <c r="C13" s="2"/>
@@ -1639,85 +4608,203 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="10" style="13" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="25" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>52</v>
+      <c r="B2" s="32" t="s">
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
+        <v>126</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
+        <v>129</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1726,12 +4813,1007 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC10DF8B-338F-4ED2-9F64-130340EF975F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15"/>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="12">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="12">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="12">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="12">
+        <v>3</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="12">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15"/>
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15"/>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="12">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" s="12">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15"/>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="20"/>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="15"/>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15">
+      <c r="A57" s="12">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15">
+      <c r="A58" s="12">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="20"/>
+    </row>
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15">
+      <c r="A71" s="12">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="12">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15">
+      <c r="A74" s="23"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+    </row>
+    <row r="75" spans="1:5" ht="15">
+      <c r="A75" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15">
+      <c r="A76" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="20"/>
+    </row>
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15">
+      <c r="A85" s="12">
+        <v>1</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15">
+      <c r="A86" s="12">
+        <v>2</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15">
+      <c r="A88" s="23"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+    </row>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15"/>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+    </row>
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15"/>
+    <row r="98" spans="1:5" ht="15">
+      <c r="A98" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D98" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E98" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15">
+      <c r="A99" s="12">
+        <v>1</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" s="12">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="12">
+        <v>3</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15">
+      <c r="A102" s="12">
+        <v>4</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="7">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
 </worksheet>
 </file>